--- a/题目二_贷款分配.xlsx
+++ b/题目二_贷款分配.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,40 +462,45 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>公司类别</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>利率</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>取消合作</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>年均进项</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>年均销项</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>月均进项</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>月均销项</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>月均税额</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>贷款额度</t>
         </is>
@@ -523,27 +528,30 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.05745603664786601</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.3274365361922729</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>25375383.15333333</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>108268677.54</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>2114615.262777778</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>9022389.795</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>36089559.18</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>1920000</v>
       </c>
     </row>
@@ -569,27 +577,30 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.04038135589940725</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.0915115077473132</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>548900.8199999999</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>217312651.51</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>45741.73499999999</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>18109387.62583333</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>72437550.50333333</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -615,27 +626,30 @@
         <v>3</v>
       </c>
       <c r="G4" t="n">
+        <v>11</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.05407542021089864</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.2868679958611358</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>37116006.71333333</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>69694677.26333334</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>3093000.559444444</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>5807889.771944445</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>23231559.08777778</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>2840000</v>
       </c>
     </row>
@@ -661,27 +675,30 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.04921639305230846</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.2238794055031952</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>5693780.703333333</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>40772276.57666667</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>474481.7252777778</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>3397689.714722222</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>13590758.85888889</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>440000</v>
       </c>
     </row>
@@ -707,27 +724,30 @@
         <v>3</v>
       </c>
       <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.04493297171534284</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.162963441640577</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>310794415.34</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>313737121.4966667</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>25899534.61166666</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>26144760.12472222</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>104579040.4988889</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>22220000</v>
       </c>
     </row>
@@ -753,27 +773,30 @@
         <v>3</v>
       </c>
       <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.05273696273081631</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.2701006813408293</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>33684844.37666667</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>60570693.43</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>2807070.364722222</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>5047557.785833334</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>20190231.14333333</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>2700000</v>
       </c>
     </row>
@@ -799,27 +822,30 @@
         <v>3</v>
       </c>
       <c r="G8" t="n">
+        <v>11</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.0495275725076789</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.2280959782001504</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>1429593.563333333</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>20873131.45</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>119132.7969444445</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>1739427.620833334</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>6957710.483333334</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>120000</v>
       </c>
     </row>
@@ -829,44 +855,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">个体经营E132 </t>
+          <t xml:space="preserve">个体经营E139 </t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>80</v>
       </c>
       <c r="D9" t="n">
-        <v>11557856.82</v>
+        <v>9311257.25</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03696527053212103</v>
+        <v>0.04958155692404864</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04655913009847702</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1867473256885979</v>
+        <v>0.04122500237319755</v>
       </c>
       <c r="I9" t="n">
-        <v>21353923.91</v>
+        <v>0.1053442974045042</v>
       </c>
       <c r="J9" t="n">
-        <v>67786087.28333333</v>
+        <v>403496.0133333334</v>
       </c>
       <c r="K9" t="n">
-        <v>1941265.81</v>
+        <v>62571175.79666666</v>
       </c>
       <c r="L9" t="n">
-        <v>6162371.571212121</v>
+        <v>33624.66777777778</v>
       </c>
       <c r="M9" t="n">
-        <v>22595362.42777778</v>
+        <v>5214264.649722221</v>
       </c>
       <c r="N9" t="n">
-        <v>1870000</v>
+        <v>20857058.59888889</v>
+      </c>
+      <c r="O9" t="n">
+        <v>40000</v>
       </c>
     </row>
     <row r="10">
@@ -875,44 +904,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">个体经营E139 </t>
+          <t xml:space="preserve">个体经营E124 </t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>80</v>
       </c>
       <c r="D10" t="n">
-        <v>9311257.25</v>
+        <v>7980118.450000003</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04958155692404864</v>
+        <v>0.1430666748151317</v>
       </c>
       <c r="F10" t="n">
         <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04122500237319755</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1053442974045042</v>
+        <v>0.0451258943426413</v>
       </c>
       <c r="I10" t="n">
-        <v>403496.0133333334</v>
+        <v>0.1658296988516579</v>
       </c>
       <c r="J10" t="n">
-        <v>62571175.79666666</v>
+        <v>261841845.1133333</v>
       </c>
       <c r="K10" t="n">
-        <v>33624.66777777778</v>
+        <v>247260122.61</v>
       </c>
       <c r="L10" t="n">
-        <v>5214264.649722221</v>
+        <v>21820153.75944445</v>
       </c>
       <c r="M10" t="n">
-        <v>20857058.59888889</v>
+        <v>20605010.2175</v>
       </c>
       <c r="N10" t="n">
-        <v>40000</v>
+        <v>82420040.87</v>
+      </c>
+      <c r="O10" t="n">
+        <v>18700000</v>
       </c>
     </row>
     <row r="11">
@@ -921,44 +953,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">个体经营E124 </t>
+          <t>***工程咨询有限公司</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>80</v>
       </c>
       <c r="D11" t="n">
-        <v>7980118.450000003</v>
+        <v>7002446.380000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1430666748151317</v>
+        <v>0.05912424983329629</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0451258943426413</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1658296988516579</v>
+        <v>0.0775054985614779</v>
       </c>
       <c r="I11" t="n">
-        <v>261841845.1133333</v>
+        <v>0.5276882874834576</v>
       </c>
       <c r="J11" t="n">
-        <v>247260122.61</v>
+        <v>1309581.833333333</v>
       </c>
       <c r="K11" t="n">
-        <v>21820153.75944445</v>
+        <v>30703867.495</v>
       </c>
       <c r="L11" t="n">
-        <v>20605010.2175</v>
+        <v>109131.8194444444</v>
       </c>
       <c r="M11" t="n">
-        <v>82420040.87</v>
+        <v>2558655.624583333</v>
       </c>
       <c r="N11" t="n">
-        <v>18700000</v>
+        <v>10234622.49833333</v>
+      </c>
+      <c r="O11" t="n">
+        <v>110000</v>
       </c>
     </row>
     <row r="12">
@@ -967,44 +1002,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>***工程咨询有限公司</t>
+          <t>***运贸有限责任公司</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>80</v>
       </c>
       <c r="D12" t="n">
-        <v>7002446.380000001</v>
+        <v>6683651.64</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05912424983329629</v>
+        <v>0.02437999159310635</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0775054985614779</v>
+        <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5276882874834576</v>
+        <v>0.04080776965312213</v>
       </c>
       <c r="I12" t="n">
-        <v>1309581.833333333</v>
+        <v>0.0985389152240832</v>
       </c>
       <c r="J12" t="n">
-        <v>30703867.495</v>
+        <v>2100801.209999999</v>
       </c>
       <c r="K12" t="n">
-        <v>109131.8194444444</v>
+        <v>29902931.9975</v>
       </c>
       <c r="L12" t="n">
-        <v>2558655.624583333</v>
+        <v>300114.4585714285</v>
       </c>
       <c r="M12" t="n">
-        <v>10234622.49833333</v>
+        <v>4271847.428214286</v>
       </c>
       <c r="N12" t="n">
-        <v>110000</v>
+        <v>9967643.999166666</v>
+      </c>
+      <c r="O12" t="n">
+        <v>300000</v>
       </c>
     </row>
     <row r="13">
@@ -1013,44 +1051,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>***运贸有限责任公司</t>
+          <t>***钢结构工程有限公司</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>80</v>
       </c>
       <c r="D13" t="n">
-        <v>6683651.64</v>
+        <v>6512147.119999997</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02437999159310635</v>
+        <v>0.09944751381215469</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04080776965312213</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0985389152240832</v>
+        <v>0.04231747381994437</v>
       </c>
       <c r="I13" t="n">
-        <v>2100801.209999999</v>
+        <v>0.1228421724655298</v>
       </c>
       <c r="J13" t="n">
-        <v>29902931.9975</v>
+        <v>37541145.7275</v>
       </c>
       <c r="K13" t="n">
-        <v>300114.4585714285</v>
+        <v>55708367.145</v>
       </c>
       <c r="L13" t="n">
-        <v>4271847.428214286</v>
+        <v>3128428.810625</v>
       </c>
       <c r="M13" t="n">
-        <v>9967643.999166666</v>
+        <v>4642363.92875</v>
       </c>
       <c r="N13" t="n">
-        <v>300000</v>
+        <v>13927091.78625</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2820000</v>
       </c>
     </row>
     <row r="14">
@@ -1059,44 +1100,47 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>***钢结构工程有限公司</t>
+          <t>***医药有限公司</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>80</v>
       </c>
       <c r="D14" t="n">
-        <v>6512147.119999997</v>
+        <v>6083407.48</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09944751381215469</v>
+        <v>0.04352241404323227</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04231747381994437</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1228421724655298</v>
+        <v>0.04949084350283953</v>
       </c>
       <c r="I14" t="n">
-        <v>37541145.7275</v>
+        <v>0.2275996705043863</v>
       </c>
       <c r="J14" t="n">
-        <v>55708367.145</v>
+        <v>18886063.5875</v>
       </c>
       <c r="K14" t="n">
-        <v>3128428.810625</v>
+        <v>27475877.0375</v>
       </c>
       <c r="L14" t="n">
-        <v>4642363.92875</v>
+        <v>1573838.632291666</v>
       </c>
       <c r="M14" t="n">
-        <v>13927091.78625</v>
+        <v>2289656.419791667</v>
       </c>
       <c r="N14" t="n">
-        <v>2820000</v>
+        <v>6868969.259375</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1510000</v>
       </c>
     </row>
     <row r="15">
@@ -1105,44 +1149,47 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>***医药有限公司</t>
+          <t>***建设工程有限公司</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>80</v>
       </c>
       <c r="D15" t="n">
-        <v>6083407.48</v>
+        <v>5942643.62</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04352241404323227</v>
+        <v>0.02800248911014312</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04949084350283953</v>
+        <v>11</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2275996705043863</v>
+        <v>0.05285528350052134</v>
       </c>
       <c r="I15" t="n">
-        <v>18886063.5875</v>
+        <v>0.2715999758211285</v>
       </c>
       <c r="J15" t="n">
-        <v>27475877.0375</v>
+        <v>8188426.483333333</v>
       </c>
       <c r="K15" t="n">
-        <v>1573838.632291666</v>
+        <v>33884389.63</v>
       </c>
       <c r="L15" t="n">
-        <v>2289656.419791667</v>
+        <v>682368.8736111111</v>
       </c>
       <c r="M15" t="n">
-        <v>6868969.259375</v>
+        <v>2823699.135833334</v>
       </c>
       <c r="N15" t="n">
-        <v>1510000</v>
+        <v>11294796.54333333</v>
+      </c>
+      <c r="O15" t="n">
+        <v>670000</v>
       </c>
     </row>
     <row r="16">
@@ -1151,44 +1198,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>***建设工程有限公司</t>
+          <t>***建筑工程有限公司</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>80</v>
       </c>
       <c r="D16" t="n">
-        <v>5942643.62</v>
+        <v>5292730.56</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02800248911014312</v>
+        <v>0.06184066933430338</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05285528350052134</v>
+        <v>11</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2715999758211285</v>
+        <v>0.04283346926203487</v>
       </c>
       <c r="I16" t="n">
-        <v>8188426.483333333</v>
+        <v>0.130950280409003</v>
       </c>
       <c r="J16" t="n">
-        <v>33884389.63</v>
+        <v>1731630.58</v>
       </c>
       <c r="K16" t="n">
-        <v>682368.8736111111</v>
+        <v>45607258.2625</v>
       </c>
       <c r="L16" t="n">
-        <v>2823699.135833334</v>
+        <v>144302.5483333333</v>
       </c>
       <c r="M16" t="n">
-        <v>11294796.54333333</v>
+        <v>3800604.855208334</v>
       </c>
       <c r="N16" t="n">
-        <v>670000</v>
+        <v>11401814.565625</v>
+      </c>
+      <c r="O16" t="n">
+        <v>140000</v>
       </c>
     </row>
     <row r="17">
@@ -1197,44 +1247,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>***建筑工程有限公司</t>
+          <t>***生态魔芋有限公司</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>80</v>
       </c>
       <c r="D17" t="n">
-        <v>5292730.56</v>
+        <v>4836511.07</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06184066933430338</v>
+        <v>0.006897803594118715</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04283346926203487</v>
+        <v>11</v>
       </c>
       <c r="H17" t="n">
-        <v>0.130950280409003</v>
+        <v>0.04628745605650894</v>
       </c>
       <c r="I17" t="n">
-        <v>1731630.58</v>
+        <v>0.1828322402280445</v>
       </c>
       <c r="J17" t="n">
-        <v>45607258.2625</v>
+        <v>704949.16</v>
       </c>
       <c r="K17" t="n">
-        <v>144302.5483333333</v>
+        <v>32109673.90333334</v>
       </c>
       <c r="L17" t="n">
-        <v>3800604.855208334</v>
+        <v>78327.68444444444</v>
       </c>
       <c r="M17" t="n">
-        <v>11401814.565625</v>
+        <v>3567741.544814815</v>
       </c>
       <c r="N17" t="n">
-        <v>140000</v>
+        <v>32109673.90333334</v>
+      </c>
+      <c r="O17" t="n">
+        <v>80000</v>
       </c>
     </row>
     <row r="18">
@@ -1243,44 +1296,47 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>***生态魔芋有限公司</t>
+          <t>***质量检验测试站</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>80</v>
       </c>
       <c r="D18" t="n">
-        <v>4836511.07</v>
+        <v>4731685.100000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.006897803594118715</v>
+        <v>0.06733816206428248</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04628745605650894</v>
+        <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1828322402280445</v>
+        <v>0.05847176713991388</v>
       </c>
       <c r="I18" t="n">
-        <v>704949.16</v>
+        <v>0.3391601039593797</v>
       </c>
       <c r="J18" t="n">
-        <v>32109673.90333334</v>
+        <v>11301634.7875</v>
       </c>
       <c r="K18" t="n">
-        <v>78327.68444444444</v>
+        <v>26102317.0175</v>
       </c>
       <c r="L18" t="n">
-        <v>3567741.544814815</v>
+        <v>941802.8989583333</v>
       </c>
       <c r="M18" t="n">
-        <v>32109673.90333334</v>
+        <v>2175193.084791666</v>
       </c>
       <c r="N18" t="n">
-        <v>80000</v>
+        <v>6525579.254375</v>
+      </c>
+      <c r="O18" t="n">
+        <v>880000</v>
       </c>
     </row>
     <row r="19">
@@ -1289,44 +1345,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>***质量检验测试站</t>
+          <t>***建电管理咨询有限公司</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>80</v>
       </c>
       <c r="D19" t="n">
-        <v>4731685.100000001</v>
+        <v>4604293.61</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06733816206428248</v>
+        <v>0.1159509202453988</v>
       </c>
       <c r="F19" t="n">
         <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05847176713991388</v>
+        <v>11</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3391601039593797</v>
+        <v>0.04901232194680409</v>
       </c>
       <c r="I19" t="n">
-        <v>11301634.7875</v>
+        <v>0.2210996827499829</v>
       </c>
       <c r="J19" t="n">
-        <v>26102317.0175</v>
+        <v>49443.70333333333</v>
       </c>
       <c r="K19" t="n">
-        <v>941802.8989583333</v>
+        <v>19222519.4425</v>
       </c>
       <c r="L19" t="n">
-        <v>2175193.084791666</v>
+        <v>4120.308611111111</v>
       </c>
       <c r="M19" t="n">
-        <v>6525579.254375</v>
+        <v>1601876.620208333</v>
       </c>
       <c r="N19" t="n">
-        <v>880000</v>
+        <v>6407506.480833333</v>
+      </c>
+      <c r="O19" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="20">
@@ -1335,44 +1394,47 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">个体经营E156 </t>
+          <t>***劳务有限公司</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>80</v>
       </c>
       <c r="D20" t="n">
-        <v>4688981.189999999</v>
+        <v>4597590.13</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08094262295081968</v>
+        <v>0.04321826583310683</v>
       </c>
       <c r="F20" t="n">
         <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04930282597806655</v>
+        <v>11</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2250532651350667</v>
+        <v>0.04224686806404396</v>
       </c>
       <c r="I20" t="n">
-        <v>713955.0066666667</v>
+        <v>0.1217250244015053</v>
       </c>
       <c r="J20" t="n">
-        <v>51289135.40333334</v>
+        <v>2165549.3275</v>
       </c>
       <c r="K20" t="n">
-        <v>59496.25055555556</v>
+        <v>26042076.435</v>
       </c>
       <c r="L20" t="n">
-        <v>4274094.616944444</v>
+        <v>180462.4439583333</v>
       </c>
       <c r="M20" t="n">
-        <v>17096378.46777778</v>
+        <v>2170173.03625</v>
       </c>
       <c r="N20" t="n">
-        <v>60000</v>
+        <v>6510519.10875</v>
+      </c>
+      <c r="O20" t="n">
+        <v>180000</v>
       </c>
     </row>
     <row r="21">
@@ -1381,44 +1443,47 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>***建电管理咨询有限公司</t>
+          <t>***物流有限公司</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>80</v>
       </c>
       <c r="D21" t="n">
-        <v>4604293.61</v>
+        <v>4590440.659999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1159509202453988</v>
+        <v>0.06307077625570777</v>
       </c>
       <c r="F21" t="n">
         <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04901232194680409</v>
+        <v>11</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2210996827499829</v>
+        <v>0.0425129620726657</v>
       </c>
       <c r="I21" t="n">
-        <v>49443.70333333333</v>
+        <v>0.1259255559214982</v>
       </c>
       <c r="J21" t="n">
-        <v>19222519.4425</v>
+        <v>25039076.84666667</v>
       </c>
       <c r="K21" t="n">
-        <v>4120.308611111111</v>
+        <v>32673411.63</v>
       </c>
       <c r="L21" t="n">
-        <v>1601876.620208333</v>
+        <v>2086589.737222222</v>
       </c>
       <c r="M21" t="n">
-        <v>6407506.480833333</v>
+        <v>2722784.3025</v>
       </c>
       <c r="N21" t="n">
-        <v>10000</v>
+        <v>10891137.21</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1960000</v>
       </c>
     </row>
     <row r="22">
@@ -1427,44 +1492,47 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>***劳务有限公司</t>
+          <t>***网络信息安全有限公司</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>80</v>
       </c>
       <c r="D22" t="n">
-        <v>4597590.13</v>
+        <v>4485899.099999996</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04321826583310683</v>
+        <v>0.05665144300845399</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04224686806404396</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1217250244015053</v>
+        <v>0.05309886780954824</v>
       </c>
       <c r="I22" t="n">
-        <v>2165549.3275</v>
+        <v>0.27467600109609</v>
       </c>
       <c r="J22" t="n">
-        <v>26042076.435</v>
+        <v>33379464.41</v>
       </c>
       <c r="K22" t="n">
-        <v>180462.4439583333</v>
+        <v>34240289.795</v>
       </c>
       <c r="L22" t="n">
-        <v>2170173.03625</v>
+        <v>3034496.764545455</v>
       </c>
       <c r="M22" t="n">
-        <v>6510519.10875</v>
+        <v>3112753.617727273</v>
       </c>
       <c r="N22" t="n">
-        <v>180000</v>
+        <v>8560072.44875</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2870000</v>
       </c>
     </row>
     <row r="23">
@@ -1473,44 +1541,47 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>***物流有限公司</t>
+          <t>***地质制图印刷厂</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>80</v>
       </c>
       <c r="D23" t="n">
-        <v>4590440.659999999</v>
+        <v>4289450.309999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06307077625570777</v>
+        <v>0.06282082620386213</v>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0425129620726657</v>
+        <v>11</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1259255559214982</v>
+        <v>0.05145355745202508</v>
       </c>
       <c r="I23" t="n">
-        <v>25039076.84666667</v>
+        <v>0.2536184735749991</v>
       </c>
       <c r="J23" t="n">
-        <v>32673411.63</v>
+        <v>10575096.55</v>
       </c>
       <c r="K23" t="n">
-        <v>2086589.737222222</v>
+        <v>18131550.78</v>
       </c>
       <c r="L23" t="n">
-        <v>2722784.3025</v>
+        <v>881258.0458333334</v>
       </c>
       <c r="M23" t="n">
-        <v>10891137.21</v>
+        <v>1510962.565</v>
       </c>
       <c r="N23" t="n">
-        <v>1960000</v>
+        <v>4532887.695</v>
+      </c>
+      <c r="O23" t="n">
+        <v>830000</v>
       </c>
     </row>
     <row r="24">
@@ -1519,44 +1590,47 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>***网络信息安全有限公司</t>
+          <t>***建设工程有限公司</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>80</v>
       </c>
       <c r="D24" t="n">
-        <v>4485899.099999996</v>
+        <v>3925205.44</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05665144300845399</v>
+        <v>0.04486133768352366</v>
       </c>
       <c r="F24" t="n">
         <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05309886780954824</v>
+        <v>11</v>
       </c>
       <c r="H24" t="n">
-        <v>0.27467600109609</v>
+        <v>0.05439496814734143</v>
       </c>
       <c r="I24" t="n">
-        <v>33379464.41</v>
+        <v>0.2908096987112769</v>
       </c>
       <c r="J24" t="n">
-        <v>34240289.795</v>
+        <v>27735812.45</v>
       </c>
       <c r="K24" t="n">
-        <v>3034496.764545455</v>
+        <v>28564593.785</v>
       </c>
       <c r="L24" t="n">
-        <v>3112753.617727273</v>
+        <v>2521437.495454546</v>
       </c>
       <c r="M24" t="n">
-        <v>8560072.44875</v>
+        <v>2596781.253181818</v>
       </c>
       <c r="N24" t="n">
-        <v>2870000</v>
+        <v>9521531.261666667</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2410000</v>
       </c>
     </row>
     <row r="25">
@@ -1565,44 +1639,47 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>***节能服务有限公司</t>
+          <t>***建筑工程有限公司</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>80</v>
       </c>
       <c r="D25" t="n">
-        <v>4376050.399999999</v>
+        <v>3562609.869999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08264462809917356</v>
+        <v>0.1137380191693291</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05099653436102151</v>
+        <v>11</v>
       </c>
       <c r="H25" t="n">
-        <v>0.247649681162305</v>
+        <v>0.04080090768857182</v>
       </c>
       <c r="I25" t="n">
-        <v>935601.37</v>
+        <v>0.0984264107135</v>
       </c>
       <c r="J25" t="n">
-        <v>10020230.15</v>
+        <v>1463821.695</v>
       </c>
       <c r="K25" t="n">
-        <v>93560.137</v>
+        <v>19404668.575</v>
       </c>
       <c r="L25" t="n">
-        <v>1002023.015</v>
+        <v>146382.1695</v>
       </c>
       <c r="M25" t="n">
-        <v>10020230.15</v>
+        <v>1940466.8575</v>
       </c>
       <c r="N25" t="n">
-        <v>90000</v>
+        <v>9702334.287500001</v>
+      </c>
+      <c r="O25" t="n">
+        <v>130000</v>
       </c>
     </row>
     <row r="26">
@@ -1611,44 +1688,47 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>***地质制图印刷厂</t>
+          <t>***装饰工程有限责任公司</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>80</v>
       </c>
       <c r="D26" t="n">
-        <v>4289450.309999999</v>
+        <v>3349318.380000001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06282082620386213</v>
+        <v>0.05620815965643552</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05145355745202508</v>
+        <v>11</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2536184735749991</v>
+        <v>0.04690559441199389</v>
       </c>
       <c r="I26" t="n">
-        <v>10575096.55</v>
+        <v>0.1917071988435382</v>
       </c>
       <c r="J26" t="n">
-        <v>18131550.78</v>
+        <v>36901427.55</v>
       </c>
       <c r="K26" t="n">
-        <v>881258.0458333334</v>
+        <v>46917445.7675</v>
       </c>
       <c r="L26" t="n">
-        <v>1510962.565</v>
+        <v>3354675.231818181</v>
       </c>
       <c r="M26" t="n">
-        <v>4532887.695</v>
+        <v>4265222.3425</v>
       </c>
       <c r="N26" t="n">
-        <v>830000</v>
+        <v>11729361.441875</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3170000</v>
       </c>
     </row>
     <row r="27">
@@ -1657,44 +1737,47 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>***塑料厂</t>
+          <t>***科技发展有限公司</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>80</v>
       </c>
       <c r="D27" t="n">
-        <v>4037966.81</v>
+        <v>3210760.939999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1195952161913523</v>
+        <v>0.08103015075376885</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>0.057561239366186</v>
+        <v>11</v>
       </c>
       <c r="H27" t="n">
-        <v>0.328660368200663</v>
+        <v>0.06530336019590313</v>
       </c>
       <c r="I27" t="n">
-        <v>2877737.696666667</v>
+        <v>0.4130845356254349</v>
       </c>
       <c r="J27" t="n">
-        <v>8110986.422500002</v>
+        <v>14352495.3575</v>
       </c>
       <c r="K27" t="n">
-        <v>239811.4747222222</v>
+        <v>23022942.07</v>
       </c>
       <c r="L27" t="n">
-        <v>675915.5352083335</v>
+        <v>1196041.279791667</v>
       </c>
       <c r="M27" t="n">
-        <v>2703662.140833334</v>
+        <v>1918578.505833333</v>
       </c>
       <c r="N27" t="n">
-        <v>220000</v>
+        <v>5755735.5175</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1100000</v>
       </c>
     </row>
     <row r="28">
@@ -1703,44 +1786,47 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>***建设工程有限公司</t>
+          <t>***建筑设计有限公司</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>80</v>
       </c>
       <c r="D28" t="n">
-        <v>3925205.44</v>
+        <v>3200773.81</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04486133768352366</v>
+        <v>0.04223791718598532</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05439496814734143</v>
+        <v>11</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2908096987112769</v>
+        <v>0.05370307611741312</v>
       </c>
       <c r="I28" t="n">
-        <v>27735812.45</v>
+        <v>0.2822455495107254</v>
       </c>
       <c r="J28" t="n">
-        <v>28564593.785</v>
+        <v>18825324.1325</v>
       </c>
       <c r="K28" t="n">
-        <v>2521437.495454546</v>
+        <v>28707860.7875</v>
       </c>
       <c r="L28" t="n">
-        <v>2596781.253181818</v>
+        <v>1711393.102954546</v>
       </c>
       <c r="M28" t="n">
-        <v>9521531.261666667</v>
+        <v>2609805.526136364</v>
       </c>
       <c r="N28" t="n">
-        <v>2410000</v>
+        <v>7176965.196875</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1640000</v>
       </c>
     </row>
     <row r="29">
@@ -1749,44 +1835,47 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>***装饰工程有限责任公司</t>
+          <t>***建设工程有限公司</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>80</v>
       </c>
       <c r="D29" t="n">
-        <v>3349318.380000001</v>
+        <v>3019283.44</v>
       </c>
       <c r="E29" t="n">
-        <v>0.05620815965643552</v>
+        <v>0.06595289079229122</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04690559441199389</v>
+        <v>11</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1917071988435382</v>
+        <v>0.04076463985793893</v>
       </c>
       <c r="I29" t="n">
-        <v>36901427.55</v>
+        <v>0.09783147141861681</v>
       </c>
       <c r="J29" t="n">
-        <v>46917445.7675</v>
+        <v>8610318.206666667</v>
       </c>
       <c r="K29" t="n">
-        <v>3354675.231818181</v>
+        <v>16271427.035</v>
       </c>
       <c r="L29" t="n">
-        <v>4265222.3425</v>
+        <v>861031.8206666667</v>
       </c>
       <c r="M29" t="n">
-        <v>11729361.441875</v>
+        <v>1627142.7035</v>
       </c>
       <c r="N29" t="n">
-        <v>3170000</v>
+        <v>5423809.011666667</v>
+      </c>
+      <c r="O29" t="n">
+        <v>810000</v>
       </c>
     </row>
     <row r="30">
@@ -1795,44 +1884,47 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>***园林有限公司</t>
+          <t>***国际货运有限公司</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>80</v>
       </c>
       <c r="D30" t="n">
-        <v>3326774.420000001</v>
+        <v>3011899.47</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0772626931567329</v>
+        <v>0.04335573379579449</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04626092239203192</v>
+        <v>11</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1824486334838209</v>
+        <v>0.04904295099928789</v>
       </c>
       <c r="I30" t="n">
-        <v>12119516.08333333</v>
+        <v>0.2215176289933267</v>
       </c>
       <c r="J30" t="n">
-        <v>15086815.3925</v>
+        <v>3799383.565</v>
       </c>
       <c r="K30" t="n">
-        <v>1101774.189393939</v>
+        <v>17011619.635</v>
       </c>
       <c r="L30" t="n">
-        <v>1371528.672045454</v>
+        <v>316615.2970833333</v>
       </c>
       <c r="M30" t="n">
-        <v>5028938.464166666</v>
+        <v>1417634.969583333</v>
       </c>
       <c r="N30" t="n">
-        <v>1020000</v>
+        <v>4252904.908749999</v>
+      </c>
+      <c r="O30" t="n">
+        <v>310000</v>
       </c>
     </row>
     <row r="31">
@@ -1841,44 +1933,47 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>***科技发展有限公司</t>
+          <t>***建设工程有限公司</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>80</v>
       </c>
       <c r="D31" t="n">
-        <v>3210760.939999999</v>
+        <v>2909106.92</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08103015075376885</v>
+        <v>0.04819875776397516</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06530336019590313</v>
+        <v>11</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4130845356254349</v>
+        <v>0.04471766867685099</v>
       </c>
       <c r="I31" t="n">
-        <v>14352495.3575</v>
+        <v>0.1597501111095005</v>
       </c>
       <c r="J31" t="n">
-        <v>23022942.07</v>
+        <v>11095993.43666667</v>
       </c>
       <c r="K31" t="n">
-        <v>1196041.279791667</v>
+        <v>14581485.3125</v>
       </c>
       <c r="L31" t="n">
-        <v>1918578.505833333</v>
+        <v>924666.1197222221</v>
       </c>
       <c r="M31" t="n">
-        <v>5755735.5175</v>
+        <v>1215123.776041667</v>
       </c>
       <c r="N31" t="n">
-        <v>1100000</v>
+        <v>4860495.104166667</v>
+      </c>
+      <c r="O31" t="n">
+        <v>890000</v>
       </c>
     </row>
     <row r="32">
@@ -1887,44 +1982,47 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>***建筑设计有限公司</t>
+          <t>***运业有限公司</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>80</v>
       </c>
       <c r="D32" t="n">
-        <v>3200773.81</v>
+        <v>2819791.830000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04223791718598532</v>
+        <v>0.06328502415458938</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05370307611741312</v>
+        <v>11</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2822455495107254</v>
+        <v>0.04524192272485122</v>
       </c>
       <c r="I32" t="n">
-        <v>18825324.1325</v>
+        <v>0.1675476408095951</v>
       </c>
       <c r="J32" t="n">
-        <v>28707860.7875</v>
+        <v>12332162.715</v>
       </c>
       <c r="K32" t="n">
-        <v>1711393.102954546</v>
+        <v>24316919.91</v>
       </c>
       <c r="L32" t="n">
-        <v>2609805.526136364</v>
+        <v>1027680.22625</v>
       </c>
       <c r="M32" t="n">
-        <v>7176965.196875</v>
+        <v>2026409.9925</v>
       </c>
       <c r="N32" t="n">
-        <v>1640000</v>
+        <v>6079229.9775</v>
+      </c>
+      <c r="O32" t="n">
+        <v>970000</v>
       </c>
     </row>
     <row r="33">
@@ -1933,44 +2031,47 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>***建设工程有限公司</t>
+          <t xml:space="preserve">个体经营E238 </t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>80</v>
       </c>
       <c r="D33" t="n">
-        <v>3019283.44</v>
+        <v>2306881.6</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06595289079229122</v>
+        <v>0.06100637280934679</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04076463985793893</v>
+        <v>11</v>
       </c>
       <c r="H33" t="n">
-        <v>0.09783147141861681</v>
+        <v>0.06084453781512605</v>
       </c>
       <c r="I33" t="n">
-        <v>8610318.206666667</v>
+        <v>0.3657717068055686</v>
       </c>
       <c r="J33" t="n">
-        <v>16271427.035</v>
+        <v>5329253.853333334</v>
       </c>
       <c r="K33" t="n">
-        <v>861031.8206666667</v>
+        <v>18809834.66</v>
       </c>
       <c r="L33" t="n">
-        <v>1627142.7035</v>
+        <v>444104.4877777778</v>
       </c>
       <c r="M33" t="n">
-        <v>5423809.011666667</v>
+        <v>1567486.221666667</v>
       </c>
       <c r="N33" t="n">
-        <v>810000</v>
+        <v>6269944.886666667</v>
+      </c>
+      <c r="O33" t="n">
+        <v>420000</v>
       </c>
     </row>
     <row r="34">
@@ -1979,44 +2080,47 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>***国际货运有限公司</t>
+          <t>***文化传媒股份有限公司</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>80</v>
       </c>
       <c r="D34" t="n">
-        <v>3011899.47</v>
+        <v>2242205.620000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04335573379579449</v>
+        <v>0.06745726166640997</v>
       </c>
       <c r="F34" t="n">
         <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04904295099928789</v>
+        <v>11</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2215176289933267</v>
+        <v>0.05179917937475827</v>
       </c>
       <c r="I34" t="n">
-        <v>3799383.565</v>
+        <v>0.2580972474345566</v>
       </c>
       <c r="J34" t="n">
-        <v>17011619.635</v>
+        <v>21731152.255</v>
       </c>
       <c r="K34" t="n">
-        <v>316615.2970833333</v>
+        <v>28554943.5575</v>
       </c>
       <c r="L34" t="n">
-        <v>1417634.969583333</v>
+        <v>1810929.354583333</v>
       </c>
       <c r="M34" t="n">
-        <v>4252904.908749999</v>
+        <v>2379578.629791667</v>
       </c>
       <c r="N34" t="n">
-        <v>310000</v>
+        <v>7138735.889375</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1690000</v>
       </c>
     </row>
     <row r="35">
@@ -2025,44 +2129,47 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>***建设工程有限公司</t>
+          <t>***物业服务有限责任公司***分公司</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>80</v>
       </c>
       <c r="D35" t="n">
-        <v>2909106.92</v>
+        <v>1751843.62</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04819875776397516</v>
+        <v>0.05733504163997438</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04471766867685099</v>
+        <v>9</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1597501111095005</v>
+        <v>0.04619380979422276</v>
       </c>
       <c r="I35" t="n">
-        <v>11095993.43666667</v>
+        <v>0.1814773795651634</v>
       </c>
       <c r="J35" t="n">
-        <v>14581485.3125</v>
+        <v>10915313.4925</v>
       </c>
       <c r="K35" t="n">
-        <v>924666.1197222221</v>
+        <v>17171604.56</v>
       </c>
       <c r="L35" t="n">
-        <v>1215123.776041667</v>
+        <v>909609.4577083333</v>
       </c>
       <c r="M35" t="n">
-        <v>4860495.104166667</v>
+        <v>1430967.046666667</v>
       </c>
       <c r="N35" t="n">
-        <v>890000</v>
+        <v>4292901.140000001</v>
+      </c>
+      <c r="O35" t="n">
+        <v>860000</v>
       </c>
     </row>
     <row r="36">
@@ -2071,44 +2178,47 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>***运业有限公司</t>
+          <t>***机电有限公司</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>80</v>
       </c>
       <c r="D36" t="n">
-        <v>2819791.830000001</v>
+        <v>1703637.1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06328502415458938</v>
+        <v>0.08067135896047645</v>
       </c>
       <c r="F36" t="n">
         <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04524192272485122</v>
+        <v>11</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1675476408095951</v>
+        <v>0.05255027684521836</v>
       </c>
       <c r="I36" t="n">
-        <v>12332162.715</v>
+        <v>0.2677282480874776</v>
       </c>
       <c r="J36" t="n">
-        <v>24316919.91</v>
+        <v>1768923.006666667</v>
       </c>
       <c r="K36" t="n">
-        <v>1027680.22625</v>
+        <v>4223567.08</v>
       </c>
       <c r="L36" t="n">
-        <v>2026409.9925</v>
+        <v>147410.2505555555</v>
       </c>
       <c r="M36" t="n">
-        <v>6079229.9775</v>
+        <v>351963.9233333333</v>
       </c>
       <c r="N36" t="n">
-        <v>970000</v>
+        <v>1407855.693333333</v>
+      </c>
+      <c r="O36" t="n">
+        <v>140000</v>
       </c>
     </row>
     <row r="37">
@@ -2117,44 +2227,47 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">个体经营E238 </t>
+          <t>***工程检测有限公司</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>80</v>
       </c>
       <c r="D37" t="n">
-        <v>2306881.6</v>
+        <v>1667929.02</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06100637280934679</v>
+        <v>0.05175917014223078</v>
       </c>
       <c r="F37" t="n">
         <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06084453781512605</v>
+        <v>11</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3657717068055686</v>
+        <v>0.06052681311612623</v>
       </c>
       <c r="I37" t="n">
-        <v>5329253.853333334</v>
+        <v>0.3622690822676085</v>
       </c>
       <c r="J37" t="n">
-        <v>18809834.66</v>
+        <v>10997753.0625</v>
       </c>
       <c r="K37" t="n">
-        <v>444104.4877777778</v>
+        <v>16425246.2925</v>
       </c>
       <c r="L37" t="n">
-        <v>1567486.221666667</v>
+        <v>916479.421875</v>
       </c>
       <c r="M37" t="n">
-        <v>6269944.886666667</v>
+        <v>1368770.524375</v>
       </c>
       <c r="N37" t="n">
-        <v>420000</v>
+        <v>4106311.573125</v>
+      </c>
+      <c r="O37" t="n">
+        <v>870000</v>
       </c>
     </row>
     <row r="38">
@@ -2163,44 +2276,47 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>***文化传媒股份有限公司</t>
+          <t>***文化传播有限公司</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>80</v>
       </c>
       <c r="D38" t="n">
-        <v>2242205.620000001</v>
+        <v>1597484.450000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.06745726166640997</v>
+        <v>0.04235700907650194</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>0.05179917937475827</v>
+        <v>11</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2580972474345566</v>
+        <v>0.05346473798993914</v>
       </c>
       <c r="I38" t="n">
-        <v>21731152.255</v>
+        <v>0.2792698596225702</v>
       </c>
       <c r="J38" t="n">
-        <v>28554943.5575</v>
+        <v>13797725.36</v>
       </c>
       <c r="K38" t="n">
-        <v>1810929.354583333</v>
+        <v>20071582.775</v>
       </c>
       <c r="L38" t="n">
-        <v>2379578.629791667</v>
+        <v>1533080.595555556</v>
       </c>
       <c r="M38" t="n">
-        <v>7138735.889375</v>
+        <v>2230175.863888889</v>
       </c>
       <c r="N38" t="n">
-        <v>1690000</v>
+        <v>5017895.69375</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1470000</v>
       </c>
     </row>
     <row r="39">
@@ -2209,44 +2325,47 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>***科技有限公司</t>
+          <t>***数码科技有限公司</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>80</v>
       </c>
       <c r="D39" t="n">
-        <v>1823528.949999998</v>
+        <v>1416895.74</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0649031067363888</v>
+        <v>0.1226626776364996</v>
       </c>
       <c r="F39" t="n">
         <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>0.06469130700040937</v>
+        <v>11</v>
       </c>
       <c r="H39" t="n">
-        <v>0.406784766333667</v>
+        <v>0.0471206096744111</v>
       </c>
       <c r="I39" t="n">
-        <v>11351197.24</v>
+        <v>0.1947668995349501</v>
       </c>
       <c r="J39" t="n">
-        <v>14424303.9</v>
+        <v>13058195.66</v>
       </c>
       <c r="K39" t="n">
-        <v>945933.1033333334</v>
+        <v>15653950.1025</v>
       </c>
       <c r="L39" t="n">
-        <v>1202025.325</v>
+        <v>1088182.971666667</v>
       </c>
       <c r="M39" t="n">
-        <v>3606075.975</v>
+        <v>1304495.841875</v>
       </c>
       <c r="N39" t="n">
-        <v>890000</v>
+        <v>3913487.525625</v>
+      </c>
+      <c r="O39" t="n">
+        <v>960000</v>
       </c>
     </row>
     <row r="40">
@@ -2255,44 +2374,47 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>***物业服务有限责任公司***分公司</t>
+          <t>***医疗器械有限公司</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>80</v>
       </c>
       <c r="D40" t="n">
-        <v>1751843.62</v>
+        <v>1190854.47</v>
       </c>
       <c r="E40" t="n">
-        <v>0.05733504163997438</v>
+        <v>0.08465804066543438</v>
       </c>
       <c r="F40" t="n">
         <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04619380979422276</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1814773795651634</v>
+        <v>0.05075208761561806</v>
       </c>
       <c r="I40" t="n">
-        <v>10915313.4925</v>
+        <v>0.2444351742677031</v>
       </c>
       <c r="J40" t="n">
-        <v>17171604.56</v>
+        <v>2872117.793333333</v>
       </c>
       <c r="K40" t="n">
-        <v>909609.4577083333</v>
+        <v>3991924.845</v>
       </c>
       <c r="L40" t="n">
-        <v>1430967.046666667</v>
+        <v>239343.1494444444</v>
       </c>
       <c r="M40" t="n">
-        <v>4292901.140000001</v>
+        <v>332660.40375</v>
       </c>
       <c r="N40" t="n">
-        <v>860000</v>
+        <v>1330641.615</v>
+      </c>
+      <c r="O40" t="n">
+        <v>220000</v>
       </c>
     </row>
     <row r="41">
@@ -2301,44 +2423,47 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>***石化有限公司</t>
+          <t>***广告有限公司</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>80</v>
       </c>
       <c r="D41" t="n">
-        <v>1723267.99</v>
+        <v>648385.4000000004</v>
       </c>
       <c r="E41" t="n">
-        <v>0.04326923076923077</v>
+        <v>0.07459970887918486</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04312128404197178</v>
+        <v>10</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1354305342398812</v>
+        <v>0.06001219505045116</v>
       </c>
       <c r="I41" t="n">
-        <v>3070969.035</v>
+        <v>0.3565566921937582</v>
       </c>
       <c r="J41" t="n">
-        <v>5428127.2</v>
+        <v>5945488.38</v>
       </c>
       <c r="K41" t="n">
-        <v>341218.7816666667</v>
+        <v>5542145.79</v>
       </c>
       <c r="L41" t="n">
-        <v>603125.2444444444</v>
+        <v>495457.365</v>
       </c>
       <c r="M41" t="n">
-        <v>1357031.8</v>
+        <v>461845.4825</v>
       </c>
       <c r="N41" t="n">
-        <v>330000</v>
+        <v>1847381.93</v>
+      </c>
+      <c r="O41" t="n">
+        <v>460000</v>
       </c>
     </row>
     <row r="42">
@@ -2347,44 +2472,47 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>***机电有限公司</t>
+          <t>***食品有限公司</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>80</v>
       </c>
       <c r="D42" t="n">
-        <v>1703637.1</v>
+        <v>593640.4199999999</v>
       </c>
       <c r="E42" t="n">
-        <v>0.08067135896047645</v>
+        <v>0.05812553740326741</v>
       </c>
       <c r="F42" t="n">
         <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>0.05255027684521836</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2677282480874776</v>
+        <v>0.05568731395679447</v>
       </c>
       <c r="I42" t="n">
-        <v>1768923.006666667</v>
+        <v>0.306518356203231</v>
       </c>
       <c r="J42" t="n">
-        <v>4223567.08</v>
+        <v>9794252.2875</v>
       </c>
       <c r="K42" t="n">
-        <v>147410.2505555555</v>
+        <v>39843742.05</v>
       </c>
       <c r="L42" t="n">
-        <v>351963.9233333333</v>
+        <v>816187.6906249999</v>
       </c>
       <c r="M42" t="n">
-        <v>1407855.693333333</v>
+        <v>3320311.8375</v>
       </c>
       <c r="N42" t="n">
-        <v>140000</v>
+        <v>9960935.512499999</v>
+      </c>
+      <c r="O42" t="n">
+        <v>770000</v>
       </c>
     </row>
     <row r="43">
@@ -2393,44 +2521,47 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>***工程检测有限公司</t>
+          <t>***工贸有限公司</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>80</v>
       </c>
       <c r="D43" t="n">
-        <v>1667929.02</v>
+        <v>423796.1000000015</v>
       </c>
       <c r="E43" t="n">
-        <v>0.05175917014223078</v>
+        <v>0.07366863905325444</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06052681311612623</v>
+        <v>11</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3622690822676085</v>
+        <v>0.05152526746704283</v>
       </c>
       <c r="I43" t="n">
-        <v>10997753.0625</v>
+        <v>0.2545502028785647</v>
       </c>
       <c r="J43" t="n">
-        <v>16425246.2925</v>
+        <v>28244190.695</v>
       </c>
       <c r="K43" t="n">
-        <v>916479.421875</v>
+        <v>29392430.015</v>
       </c>
       <c r="L43" t="n">
-        <v>1368770.524375</v>
+        <v>2353682.557916667</v>
       </c>
       <c r="M43" t="n">
-        <v>4106311.573125</v>
+        <v>2449369.167916667</v>
       </c>
       <c r="N43" t="n">
-        <v>870000</v>
+        <v>7348107.50375</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2190000</v>
       </c>
     </row>
     <row r="44">
@@ -2439,44 +2570,47 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>***物流有限公司</t>
+          <t>***贸易有限责任公司</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>80</v>
       </c>
       <c r="D44" t="n">
-        <v>1634695.48</v>
+        <v>292193.2100000028</v>
       </c>
       <c r="E44" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.04533116178067318</v>
       </c>
       <c r="F44" t="n">
         <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04894795293515174</v>
+        <v>11</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2202204887593116</v>
+        <v>0.05590694998741595</v>
       </c>
       <c r="I44" t="n">
-        <v>13755326.39333334</v>
+        <v>0.3091517758895033</v>
       </c>
       <c r="J44" t="n">
-        <v>18725816.6475</v>
+        <v>35313743.47</v>
       </c>
       <c r="K44" t="n">
-        <v>1146277.199444445</v>
+        <v>26709081.19</v>
       </c>
       <c r="L44" t="n">
-        <v>1560484.720625</v>
+        <v>2942811.955833333</v>
       </c>
       <c r="M44" t="n">
-        <v>6241938.8825</v>
+        <v>2225756.765833334</v>
       </c>
       <c r="N44" t="n">
-        <v>1070000</v>
+        <v>8903027.063333334</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2810000</v>
       </c>
     </row>
     <row r="45">
@@ -2485,44 +2619,47 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>***文化传播有限公司</t>
+          <t>***电器维护服务有限公司</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>80</v>
       </c>
       <c r="D45" t="n">
-        <v>1597484.450000001</v>
+        <v>233564.11</v>
       </c>
       <c r="E45" t="n">
-        <v>0.04235700907650194</v>
+        <v>0.1150389454763331</v>
       </c>
       <c r="F45" t="n">
         <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05346473798993914</v>
+        <v>5</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2792698596225702</v>
+        <v>0.04725830612636835</v>
       </c>
       <c r="I45" t="n">
-        <v>13797725.36</v>
+        <v>0.1967190166845607</v>
       </c>
       <c r="J45" t="n">
-        <v>20071582.775</v>
+        <v>2735950.95</v>
       </c>
       <c r="K45" t="n">
-        <v>1533080.595555556</v>
+        <v>4057078.2925</v>
       </c>
       <c r="L45" t="n">
-        <v>2230175.863888889</v>
+        <v>227995.9125</v>
       </c>
       <c r="M45" t="n">
-        <v>5017895.69375</v>
+        <v>338089.8577083334</v>
       </c>
       <c r="N45" t="n">
-        <v>1470000</v>
+        <v>2028539.14625</v>
+      </c>
+      <c r="O45" t="n">
+        <v>210000</v>
       </c>
     </row>
     <row r="46">
@@ -2531,44 +2668,47 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>***数码科技有限公司</t>
+          <t>***影城有限公司***分公司</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>80</v>
       </c>
       <c r="D46" t="n">
-        <v>1416895.74</v>
+        <v>77693.65999999992</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1226626776364996</v>
+        <v>0.2932497233493176</v>
       </c>
       <c r="F46" t="n">
         <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0471206096744111</v>
+        <v>11</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1947668995349501</v>
+        <v>0.05238928212430893</v>
       </c>
       <c r="I46" t="n">
-        <v>13058195.66</v>
+        <v>0.2656755241613789</v>
       </c>
       <c r="J46" t="n">
-        <v>15653950.1025</v>
+        <v>3992394.676666666</v>
       </c>
       <c r="K46" t="n">
-        <v>1088182.971666667</v>
+        <v>5267900.8725</v>
       </c>
       <c r="L46" t="n">
-        <v>1304495.841875</v>
+        <v>332699.5563888889</v>
       </c>
       <c r="M46" t="n">
-        <v>3913487.525625</v>
+        <v>438991.7393749999</v>
       </c>
       <c r="N46" t="n">
-        <v>960000</v>
+        <v>1755966.9575</v>
+      </c>
+      <c r="O46" t="n">
+        <v>240000</v>
       </c>
     </row>
     <row r="47">
@@ -2577,44 +2717,47 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">个体经营E337 </t>
+          <t>***设计服务部</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>80</v>
       </c>
       <c r="D47" t="n">
-        <v>1326754.1</v>
+        <v>60568.86</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1061827956989247</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05657228231198831</v>
+        <v>10</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3170663791252941</v>
+        <v>0.06159885206839016</v>
       </c>
       <c r="I47" t="n">
-        <v>146589.555</v>
+        <v>0.3740146112695206</v>
       </c>
       <c r="J47" t="n">
-        <v>3771941.716666667</v>
+        <v>800.14</v>
       </c>
       <c r="K47" t="n">
-        <v>12215.79625</v>
+        <v>505287.5825</v>
       </c>
       <c r="L47" t="n">
-        <v>314328.4763888889</v>
+        <v>80.014</v>
       </c>
       <c r="M47" t="n">
-        <v>1885970.858333333</v>
+        <v>50528.75825</v>
       </c>
       <c r="N47" t="n">
-        <v>20000</v>
+        <v>505287.5825</v>
+      </c>
+      <c r="O47" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="48">
@@ -2623,44 +2766,47 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">个体经营E126 </t>
+          <t>***商贸有限公司</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>80</v>
       </c>
       <c r="D48" t="n">
-        <v>1271020.119999997</v>
+        <v>45006.84999999963</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1517706576728499</v>
+        <v>0.06477953184540011</v>
       </c>
       <c r="F48" t="n">
         <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05275865948245401</v>
+        <v>11</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2703758621152936</v>
+        <v>0.04632925650934924</v>
       </c>
       <c r="I48" t="n">
-        <v>37591155.06333333</v>
+        <v>0.1834361185746474</v>
       </c>
       <c r="J48" t="n">
-        <v>173563699.2733333</v>
+        <v>19312950.96666667</v>
       </c>
       <c r="K48" t="n">
-        <v>3132596.255277778</v>
+        <v>14351655.68</v>
       </c>
       <c r="L48" t="n">
-        <v>14463641.60611111</v>
+        <v>1755722.815151516</v>
       </c>
       <c r="M48" t="n">
-        <v>57854566.42444444</v>
+        <v>1304695.970909091</v>
       </c>
       <c r="N48" t="n">
-        <v>2660000</v>
+        <v>4783885.226666667</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1650000</v>
       </c>
     </row>
     <row r="49">
@@ -2669,44 +2815,47 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>***医疗器械有限公司</t>
+          <t xml:space="preserve">个体经营E346 </t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>80</v>
       </c>
       <c r="D49" t="n">
-        <v>1190854.47</v>
+        <v>24384.76000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.08465804066543438</v>
+        <v>0.04487179487179487</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>0.05075208761561806</v>
+        <v>11</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2444351742677031</v>
+        <v>0.05965625959999353</v>
       </c>
       <c r="I49" t="n">
-        <v>2872117.793333333</v>
+        <v>0.3525769893471788</v>
       </c>
       <c r="J49" t="n">
-        <v>3991924.845</v>
+        <v>769005.8733333334</v>
       </c>
       <c r="K49" t="n">
-        <v>239343.1494444444</v>
+        <v>802844.9266666666</v>
       </c>
       <c r="L49" t="n">
-        <v>332660.40375</v>
+        <v>64083.82277777779</v>
       </c>
       <c r="M49" t="n">
-        <v>1330641.615</v>
+        <v>66903.74388888889</v>
       </c>
       <c r="N49" t="n">
-        <v>220000</v>
+        <v>267614.9755555555</v>
+      </c>
+      <c r="O49" t="n">
+        <v>70000</v>
       </c>
     </row>
     <row r="50">
@@ -2715,44 +2864,47 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>***建筑劳务有限公司</t>
+          <t xml:space="preserve">个体经营E138 </t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D50" t="n">
-        <v>1021737.73</v>
+        <v>13220212.14</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1259259259259259</v>
+        <v>0.03126601742696054</v>
       </c>
       <c r="F50" t="n">
         <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05158825521500299</v>
+        <v>11</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2553675345232091</v>
+        <v>0.04914836154597022</v>
       </c>
       <c r="I50" t="n">
-        <v>120507.45</v>
+        <v>0.1975208450243666</v>
       </c>
       <c r="J50" t="n">
-        <v>12327245.0075</v>
+        <v>6928554.243333333</v>
       </c>
       <c r="K50" t="n">
-        <v>10955.22272727273</v>
+        <v>35943913.67666667</v>
       </c>
       <c r="L50" t="n">
-        <v>1120658.637045454</v>
+        <v>692855.4243333333</v>
       </c>
       <c r="M50" t="n">
-        <v>12327245.0075</v>
+        <v>3594391.367666667</v>
       </c>
       <c r="N50" t="n">
-        <v>10000</v>
+        <v>11981304.55888889</v>
+      </c>
+      <c r="O50" t="n">
+        <v>680000</v>
       </c>
     </row>
     <row r="51">
@@ -2761,44 +2913,47 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>***科技有限公司</t>
+          <t xml:space="preserve">个体经营E132 </t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D51" t="n">
-        <v>823418.48</v>
+        <v>11557856.82</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08517805582290663</v>
+        <v>0.03696527053212103</v>
       </c>
       <c r="F51" t="n">
         <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>0.06441396536909362</v>
+        <v>11</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4039104831215738</v>
+        <v>0.04655913009847702</v>
       </c>
       <c r="I51" t="n">
-        <v>6530988.8775</v>
+        <v>0.1623116957769286</v>
       </c>
       <c r="J51" t="n">
-        <v>7551050.3425</v>
+        <v>21353923.91</v>
       </c>
       <c r="K51" t="n">
-        <v>544249.073125</v>
+        <v>67786087.28333333</v>
       </c>
       <c r="L51" t="n">
-        <v>629254.1952083333</v>
+        <v>1941265.81</v>
       </c>
       <c r="M51" t="n">
-        <v>1887762.585625</v>
+        <v>6162371.571212121</v>
       </c>
       <c r="N51" t="n">
-        <v>500000</v>
+        <v>22595362.42777778</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1870000</v>
       </c>
     </row>
     <row r="52">
@@ -2807,44 +2962,47 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>***文化发展有限公司</t>
+          <t>***电子科技有限公司</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D52" t="n">
-        <v>811827.0399999996</v>
+        <v>8909322.349999998</v>
       </c>
       <c r="E52" t="n">
-        <v>0.07135046473482777</v>
+        <v>0.03976058144506199</v>
       </c>
       <c r="F52" t="n">
         <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05785745294660451</v>
+        <v>7</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3320942676366361</v>
+        <v>0.04765843394475177</v>
       </c>
       <c r="I52" t="n">
-        <v>7425915.695</v>
+        <v>0.1774937378521488</v>
       </c>
       <c r="J52" t="n">
-        <v>14991409.5775</v>
+        <v>8177303.065</v>
       </c>
       <c r="K52" t="n">
-        <v>618826.3079166667</v>
+        <v>30146621.48</v>
       </c>
       <c r="L52" t="n">
-        <v>1249284.131458333</v>
+        <v>817730.3065000001</v>
       </c>
       <c r="M52" t="n">
-        <v>3747852.394375</v>
+        <v>3014662.148000001</v>
       </c>
       <c r="N52" t="n">
-        <v>580000</v>
+        <v>7536655.370000001</v>
+      </c>
+      <c r="O52" t="n">
+        <v>790000</v>
       </c>
     </row>
     <row r="53">
@@ -2853,44 +3011,47 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>***广告有限公司</t>
+          <t xml:space="preserve">个体经营E205 </t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D53" t="n">
-        <v>648385.4000000004</v>
+        <v>8196342.500000002</v>
       </c>
       <c r="E53" t="n">
-        <v>0.07459970887918486</v>
+        <v>0.04981884057971014</v>
       </c>
       <c r="F53" t="n">
         <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06001219505045116</v>
+        <v>11</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3565566921937582</v>
+        <v>0.04815352754070037</v>
       </c>
       <c r="I53" t="n">
-        <v>5945488.38</v>
+        <v>0.1842172477557154</v>
       </c>
       <c r="J53" t="n">
-        <v>5542145.79</v>
+        <v>11967331.255</v>
       </c>
       <c r="K53" t="n">
-        <v>495457.365</v>
+        <v>24751072.23666667</v>
       </c>
       <c r="L53" t="n">
-        <v>461845.4825</v>
+        <v>1196733.1255</v>
       </c>
       <c r="M53" t="n">
-        <v>1847381.93</v>
+        <v>2475107.223666667</v>
       </c>
       <c r="N53" t="n">
-        <v>460000</v>
+        <v>12375536.11833333</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1140000</v>
       </c>
     </row>
     <row r="54">
@@ -2899,44 +3060,47 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>***文化传媒有限公司</t>
+          <t xml:space="preserve">个体经营E128 </t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D54" t="n">
-        <v>614935.7200000002</v>
+        <v>7866599.98</v>
       </c>
       <c r="E54" t="n">
-        <v>0.08322324966974901</v>
+        <v>0.04237485448195576</v>
       </c>
       <c r="F54" t="n">
         <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06361719595477106</v>
+        <v>11</v>
       </c>
       <c r="H54" t="n">
-        <v>0.3955836400686648</v>
+        <v>0.04033793663019594</v>
       </c>
       <c r="I54" t="n">
-        <v>4618194.8125</v>
+        <v>0.06899983640875718</v>
       </c>
       <c r="J54" t="n">
-        <v>7931405.7775</v>
+        <v>2976010.976666667</v>
       </c>
       <c r="K54" t="n">
-        <v>384849.5677083333</v>
+        <v>80796717.26333334</v>
       </c>
       <c r="L54" t="n">
-        <v>660950.4814583333</v>
+        <v>297601.0976666667</v>
       </c>
       <c r="M54" t="n">
-        <v>1982851.444375</v>
+        <v>8079671.726333333</v>
       </c>
       <c r="N54" t="n">
-        <v>360000</v>
+        <v>26932239.08777778</v>
+      </c>
+      <c r="O54" t="n">
+        <v>290000</v>
       </c>
     </row>
     <row r="55">
@@ -2945,44 +3109,47 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>***食品有限公司</t>
+          <t xml:space="preserve">个体经营E202 </t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D55" t="n">
-        <v>593640.4199999999</v>
+        <v>6562211.15</v>
       </c>
       <c r="E55" t="n">
-        <v>0.05812553740326741</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="F55" t="n">
         <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05568731395679447</v>
+        <v>11</v>
       </c>
       <c r="H55" t="n">
-        <v>0.306518356203231</v>
+        <v>0.040167781816414</v>
       </c>
       <c r="I55" t="n">
-        <v>9794252.2875</v>
+        <v>0.06624977265149212</v>
       </c>
       <c r="J55" t="n">
-        <v>39843742.05</v>
+        <v>3462385.273333333</v>
       </c>
       <c r="K55" t="n">
-        <v>816187.6906249999</v>
+        <v>49634818.8</v>
       </c>
       <c r="L55" t="n">
-        <v>3320311.8375</v>
+        <v>577064.2122222222</v>
       </c>
       <c r="M55" t="n">
-        <v>9960935.512499999</v>
+        <v>8272469.8</v>
       </c>
       <c r="N55" t="n">
-        <v>770000</v>
+        <v>16544939.6</v>
+      </c>
+      <c r="O55" t="n">
+        <v>560000</v>
       </c>
     </row>
     <row r="56">
@@ -2991,44 +3158,47 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>***工贸有限公司</t>
+          <t>***建筑劳务有限责任公司</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D56" t="n">
-        <v>423796.1000000015</v>
+        <v>6148429.21</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07366863905325444</v>
+        <v>0.109504132231405</v>
       </c>
       <c r="F56" t="n">
         <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05152526746704283</v>
+        <v>11</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2545502028785647</v>
+        <v>0.04987130249414486</v>
       </c>
       <c r="I56" t="n">
-        <v>28244190.695</v>
+        <v>0.2070206283215859</v>
       </c>
       <c r="J56" t="n">
-        <v>29392430.015</v>
+        <v>439913.3799999999</v>
       </c>
       <c r="K56" t="n">
-        <v>2353682.557916667</v>
+        <v>38475024.7175</v>
       </c>
       <c r="L56" t="n">
-        <v>2449369.167916667</v>
+        <v>48879.26444444443</v>
       </c>
       <c r="M56" t="n">
-        <v>7348107.50375</v>
+        <v>4275002.746388889</v>
       </c>
       <c r="N56" t="n">
-        <v>2190000</v>
+        <v>19237512.35875</v>
+      </c>
+      <c r="O56" t="n">
+        <v>50000</v>
       </c>
     </row>
     <row r="57">
@@ -3037,44 +3207,47 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>***食品集团有限公司</t>
+          <t>***建筑劳务有限公司</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D57" t="n">
-        <v>384003.7699999996</v>
+        <v>5846710.810000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06181015452538632</v>
+        <v>0.06075418994413408</v>
       </c>
       <c r="F57" t="n">
         <v>3</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05559130051491655</v>
+        <v>11</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3053638979325879</v>
+        <v>0.04064979067361039</v>
       </c>
       <c r="I57" t="n">
-        <v>26121424.13</v>
+        <v>0.0740100809082902</v>
       </c>
       <c r="J57" t="n">
-        <v>24667274.66333333</v>
+        <v>141705.0875</v>
       </c>
       <c r="K57" t="n">
-        <v>2374674.920909091</v>
+        <v>33746868.75333334</v>
       </c>
       <c r="L57" t="n">
-        <v>2242479.514848485</v>
+        <v>14170.50875</v>
       </c>
       <c r="M57" t="n">
-        <v>8222424.887777776</v>
+        <v>3374686.875333334</v>
       </c>
       <c r="N57" t="n">
-        <v>2230000</v>
+        <v>8436717.188333334</v>
+      </c>
+      <c r="O57" t="n">
+        <v>20000</v>
       </c>
     </row>
     <row r="58">
@@ -3083,44 +3256,47 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>***贸易有限责任公司</t>
+          <t xml:space="preserve">个体经营E164 </t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D58" t="n">
-        <v>292193.2100000028</v>
+        <v>5750488.23</v>
       </c>
       <c r="E58" t="n">
-        <v>0.04533116178067318</v>
+        <v>0.05457492795389049</v>
       </c>
       <c r="F58" t="n">
         <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>0.05590694998741595</v>
+        <v>11</v>
       </c>
       <c r="H58" t="n">
-        <v>0.3091517758895033</v>
+        <v>0.04642288404079715</v>
       </c>
       <c r="I58" t="n">
-        <v>35313743.47</v>
+        <v>0.1604051382582763</v>
       </c>
       <c r="J58" t="n">
-        <v>26709081.19</v>
+        <v>23536700.24666667</v>
       </c>
       <c r="K58" t="n">
-        <v>2942811.955833333</v>
+        <v>39943212.24333333</v>
       </c>
       <c r="L58" t="n">
-        <v>2225756.765833334</v>
+        <v>1961391.687222222</v>
       </c>
       <c r="M58" t="n">
-        <v>8903027.063333334</v>
+        <v>3328601.020277778</v>
       </c>
       <c r="N58" t="n">
-        <v>2810000</v>
+        <v>13314404.08111111</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1860000</v>
       </c>
     </row>
     <row r="59">
@@ -3129,44 +3305,47 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>***电器维护服务有限公司</t>
+          <t>***机电设备商贸有限公司</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D59" t="n">
-        <v>233564.11</v>
+        <v>5439644.640000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1150389454763331</v>
+        <v>0.03402268178785857</v>
       </c>
       <c r="F59" t="n">
         <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04725830612636835</v>
+        <v>11</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1967190166845607</v>
+        <v>0.0634608484059188</v>
       </c>
       <c r="I59" t="n">
-        <v>2735950.95</v>
+        <v>0.3637935158041046</v>
       </c>
       <c r="J59" t="n">
-        <v>4057078.2925</v>
+        <v>1517158.213333334</v>
       </c>
       <c r="K59" t="n">
-        <v>227995.9125</v>
+        <v>19917668.565</v>
       </c>
       <c r="L59" t="n">
-        <v>338089.8577083334</v>
+        <v>252859.7022222223</v>
       </c>
       <c r="M59" t="n">
-        <v>2028539.14625</v>
+        <v>3319611.4275</v>
       </c>
       <c r="N59" t="n">
-        <v>210000</v>
+        <v>6639222.855</v>
+      </c>
+      <c r="O59" t="n">
+        <v>250000</v>
       </c>
     </row>
     <row r="60">
@@ -3175,44 +3354,47 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>***影城有限公司***分公司</t>
+          <t>***建设工程有限公司</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D60" t="n">
-        <v>77693.65999999992</v>
+        <v>5240842.93</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2932497233493176</v>
+        <v>0.04833926453143535</v>
       </c>
       <c r="F60" t="n">
         <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>0.05238928212430893</v>
+        <v>11</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2656755241613789</v>
+        <v>0.05218950542984082</v>
       </c>
       <c r="I60" t="n">
-        <v>3992394.676666666</v>
+        <v>0.2365797659544839</v>
       </c>
       <c r="J60" t="n">
-        <v>5267900.8725</v>
+        <v>25817146.1325</v>
       </c>
       <c r="K60" t="n">
-        <v>332699.5563888889</v>
+        <v>35816093.23</v>
       </c>
       <c r="L60" t="n">
-        <v>438991.7393749999</v>
+        <v>3688163.733214286</v>
       </c>
       <c r="M60" t="n">
-        <v>1755966.9575</v>
+        <v>5116584.747142857</v>
       </c>
       <c r="N60" t="n">
-        <v>240000</v>
+        <v>8954023.307499999</v>
+      </c>
+      <c r="O60" t="n">
+        <v>3510000</v>
       </c>
     </row>
     <row r="61">
@@ -3221,44 +3403,47 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>***设计服务部</t>
+          <t xml:space="preserve">个体经营E241 </t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D61" t="n">
-        <v>60568.86</v>
+        <v>5162545.63</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0613107822410148</v>
+        <v>0.07482394366197183</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>0.06159885206839016</v>
+        <v>11</v>
       </c>
       <c r="H61" t="n">
-        <v>0.3740146112695206</v>
+        <v>0.04542914342121116</v>
       </c>
       <c r="I61" t="n">
-        <v>800.14</v>
+        <v>0.1463276281917349</v>
       </c>
       <c r="J61" t="n">
-        <v>505287.5825</v>
+        <v>2991134.235</v>
       </c>
       <c r="K61" t="n">
-        <v>80.014</v>
+        <v>12632934.74</v>
       </c>
       <c r="L61" t="n">
-        <v>50528.75825</v>
+        <v>249261.18625</v>
       </c>
       <c r="M61" t="n">
-        <v>505287.5825</v>
+        <v>1052744.561666667</v>
       </c>
       <c r="N61" t="n">
-        <v>10000</v>
+        <v>6316467.37</v>
+      </c>
+      <c r="O61" t="n">
+        <v>240000</v>
       </c>
     </row>
     <row r="62">
@@ -3267,44 +3452,47 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>***酒店管理有限公司</t>
+          <t>***路桥工程有限公司</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D62" t="n">
-        <v>48143.82</v>
+        <v>4844761.409999999</v>
       </c>
       <c r="E62" t="n">
-        <v>0.05351249410655351</v>
+        <v>0.03040173724212812</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0577586122047244</v>
+        <v>11</v>
       </c>
       <c r="H62" t="n">
-        <v>0.3309504001377144</v>
+        <v>0.04378048267902011</v>
       </c>
       <c r="I62" t="n">
-        <v>193157.3975</v>
+        <v>0.1222788158495658</v>
       </c>
       <c r="J62" t="n">
-        <v>565215.6949999999</v>
+        <v>3429972.566666666</v>
       </c>
       <c r="K62" t="n">
-        <v>16096.44979166667</v>
+        <v>34140384.31666667</v>
       </c>
       <c r="L62" t="n">
-        <v>47101.30791666666</v>
+        <v>685994.5133333333</v>
       </c>
       <c r="M62" t="n">
-        <v>141303.92375</v>
+        <v>6828076.863333334</v>
       </c>
       <c r="N62" t="n">
-        <v>20000</v>
+        <v>11380128.10555556</v>
+      </c>
+      <c r="O62" t="n">
+        <v>670000</v>
       </c>
     </row>
     <row r="63">
@@ -3313,44 +3501,47 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>***商贸有限公司</t>
+          <t xml:space="preserve">个体经营E156 </t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D63" t="n">
-        <v>45006.84999999963</v>
+        <v>4688981.189999999</v>
       </c>
       <c r="E63" t="n">
-        <v>0.06477953184540011</v>
+        <v>0.08094262295081968</v>
       </c>
       <c r="F63" t="n">
         <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04632925650934924</v>
+        <v>11</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1834361185746474</v>
+        <v>0.04930282597806655</v>
       </c>
       <c r="I63" t="n">
-        <v>19312950.96666667</v>
+        <v>0.1995622656355682</v>
       </c>
       <c r="J63" t="n">
-        <v>14351655.68</v>
+        <v>713955.0066666667</v>
       </c>
       <c r="K63" t="n">
-        <v>1755722.815151516</v>
+        <v>51289135.40333334</v>
       </c>
       <c r="L63" t="n">
-        <v>1304695.970909091</v>
+        <v>59496.25055555556</v>
       </c>
       <c r="M63" t="n">
-        <v>4783885.226666667</v>
+        <v>4274094.616944444</v>
       </c>
       <c r="N63" t="n">
-        <v>1650000</v>
+        <v>17096378.46777778</v>
+      </c>
+      <c r="O63" t="n">
+        <v>60000</v>
       </c>
     </row>
     <row r="64">
@@ -3359,44 +3550,47 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">个体经营E128 </t>
+          <t>***煤矿机械有限公司</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>60</v>
       </c>
       <c r="D64" t="n">
-        <v>7866599.98</v>
+        <v>4058700.28</v>
       </c>
       <c r="E64" t="n">
-        <v>0.04237485448195576</v>
+        <v>0.05412719891745602</v>
       </c>
       <c r="F64" t="n">
         <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>0.04033793663019594</v>
+        <v>11</v>
       </c>
       <c r="H64" t="n">
-        <v>0.06899983640875718</v>
+        <v>0.04376207486802329</v>
       </c>
       <c r="I64" t="n">
-        <v>2976010.976666667</v>
+        <v>0.1220052212450486</v>
       </c>
       <c r="J64" t="n">
-        <v>80796717.26333334</v>
+        <v>611739.875</v>
       </c>
       <c r="K64" t="n">
-        <v>297601.0976666667</v>
+        <v>8763199.163333332</v>
       </c>
       <c r="L64" t="n">
-        <v>8079671.726333333</v>
+        <v>67971.09722222222</v>
       </c>
       <c r="M64" t="n">
-        <v>26932239.08777778</v>
+        <v>973688.7959259258</v>
       </c>
       <c r="N64" t="n">
-        <v>290000</v>
+        <v>4381599.581666666</v>
+      </c>
+      <c r="O64" t="n">
+        <v>70000</v>
       </c>
     </row>
     <row r="65">
@@ -3405,44 +3599,47 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>***建筑劳务有限责任公司</t>
+          <t>***建筑工程有限公司</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>60</v>
       </c>
       <c r="D65" t="n">
-        <v>6148429.21</v>
+        <v>2227004.31</v>
       </c>
       <c r="E65" t="n">
-        <v>0.109504132231405</v>
+        <v>0.08728448275862069</v>
       </c>
       <c r="F65" t="n">
         <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>0.04987130249414486</v>
+        <v>11</v>
       </c>
       <c r="H65" t="n">
-        <v>0.2070206283215859</v>
+        <v>0.04086591260452338</v>
       </c>
       <c r="I65" t="n">
-        <v>439913.3799999999</v>
+        <v>0.0774597956357117</v>
       </c>
       <c r="J65" t="n">
-        <v>38475024.7175</v>
+        <v>72158.04333333333</v>
       </c>
       <c r="K65" t="n">
-        <v>48879.26444444443</v>
+        <v>16875688.55</v>
       </c>
       <c r="L65" t="n">
-        <v>4275002.746388889</v>
+        <v>14431.60866666667</v>
       </c>
       <c r="M65" t="n">
-        <v>19237512.35875</v>
+        <v>3375137.709999999</v>
       </c>
       <c r="N65" t="n">
-        <v>50000</v>
+        <v>5625229.516666666</v>
+      </c>
+      <c r="O65" t="n">
+        <v>20000</v>
       </c>
     </row>
     <row r="66">
@@ -3451,136 +3648,47 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>***建筑劳务有限公司</t>
+          <t>***商贸有限公司</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>60</v>
       </c>
       <c r="D66" t="n">
-        <v>5846710.810000001</v>
+        <v>1640541.76</v>
       </c>
       <c r="E66" t="n">
-        <v>0.06075418994413408</v>
+        <v>0.09752321981424149</v>
       </c>
       <c r="F66" t="n">
         <v>3</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04064979067361039</v>
+        <v>11</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0740100809082902</v>
+        <v>0.04495536517172555</v>
       </c>
       <c r="I66" t="n">
-        <v>141705.0875</v>
+        <v>0.1395072304581153</v>
       </c>
       <c r="J66" t="n">
-        <v>33746868.75333334</v>
+        <v>593448.58</v>
       </c>
       <c r="K66" t="n">
-        <v>14170.50875</v>
+        <v>3712021.93</v>
       </c>
       <c r="L66" t="n">
-        <v>3374686.875333334</v>
+        <v>49454.04833333333</v>
       </c>
       <c r="M66" t="n">
-        <v>8436717.188333334</v>
+        <v>309335.1608333333</v>
       </c>
       <c r="N66" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>***建筑工程有限公司</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>60</v>
-      </c>
-      <c r="D67" t="n">
-        <v>2227004.31</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.08728448275862069</v>
-      </c>
-      <c r="F67" t="n">
-        <v>3</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.04086591260452338</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.0774597956357117</v>
-      </c>
-      <c r="I67" t="n">
-        <v>72158.04333333333</v>
-      </c>
-      <c r="J67" t="n">
-        <v>16875688.55</v>
-      </c>
-      <c r="K67" t="n">
-        <v>14431.60866666667</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3375137.709999999</v>
-      </c>
-      <c r="M67" t="n">
-        <v>5625229.516666666</v>
-      </c>
-      <c r="N67" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>***网络科技有限公司</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>60</v>
-      </c>
-      <c r="D68" t="n">
-        <v>283238.39</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.2158590308370044</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.0618455950668582</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.347020316556043</v>
-      </c>
-      <c r="I68" t="n">
-        <v>115935.975</v>
-      </c>
-      <c r="J68" t="n">
-        <v>633600.2133333333</v>
-      </c>
-      <c r="K68" t="n">
-        <v>14491.996875</v>
-      </c>
-      <c r="L68" t="n">
-        <v>79200.02666666666</v>
-      </c>
-      <c r="M68" t="n">
-        <v>316800.1066666666</v>
-      </c>
-      <c r="N68" t="n">
-        <v>20000</v>
+        <v>1856010.965</v>
+      </c>
+      <c r="O66" t="n">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
